--- a/Finflux Automation Excels/Client/5022-SubmitLoan-Add-SubSlabBased-InstallmentNumberCharges-DisburseLoan-verify-undoDisb-undoRepayment.xlsx
+++ b/Finflux Automation Excels/Client/5022-SubmitLoan-Add-SubSlabBased-InstallmentNumberCharges-DisburseLoan-verify-undoDisb-undoRepayment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +218,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -257,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -282,6 +289,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,7 +573,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +739,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +789,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,13 +828,13 @@
       <c r="E2" s="5">
         <v>3500</v>
       </c>
-      <c r="F2" s="7">
-        <v>1124.6199999999999</v>
+      <c r="F2" s="6">
+        <v>778.53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>144.13999999999999</v>
+        <v>185.74</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -838,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>144.13999999999999</v>
+        <v>185.74</v>
       </c>
       <c r="F3" s="6">
-        <v>64.400000000000006</v>
+        <v>66.13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,10 +899,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,10 +999,10 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6">
-        <v>559.51</v>
+        <v>387.33</v>
       </c>
       <c r="G3" s="7">
-        <v>2940.49</v>
+        <v>3112.67</v>
       </c>
       <c r="H3" s="6">
         <v>35</v>
@@ -1006,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>644.51</v>
+        <v>472.33</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -1020,7 +1028,7 @@
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6">
-        <v>644.51</v>
+        <v>472.33</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1036,10 +1044,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>559.16</v>
+        <v>386.98</v>
       </c>
       <c r="G4" s="7">
-        <v>2381.33</v>
+        <v>2725.69</v>
       </c>
       <c r="H4" s="6">
         <v>35.35</v>
@@ -1051,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>594.51</v>
+        <v>422.33</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -1065,7 +1073,7 @@
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6">
-        <v>594.51</v>
+        <v>422.33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1081,10 +1089,10 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>558.80999999999995</v>
+        <v>386.63</v>
       </c>
       <c r="G5" s="7">
-        <v>1822.52</v>
+        <v>2339.06</v>
       </c>
       <c r="H5" s="6">
         <v>35.700000000000003</v>
@@ -1096,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>594.51</v>
+        <v>422.33</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -1110,7 +1118,7 @@
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6">
-        <v>594.51</v>
+        <v>422.33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1126,13 +1134,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>576.28</v>
+        <v>398.94</v>
       </c>
       <c r="G6" s="7">
-        <v>1246.24</v>
+        <v>1940.12</v>
       </c>
       <c r="H6" s="6">
-        <v>18.23</v>
+        <v>23.39</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1141,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>594.51</v>
+        <v>422.33</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -1155,7 +1163,7 @@
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6">
-        <v>594.51</v>
+        <v>422.33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1171,13 +1179,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>582.04999999999995</v>
-      </c>
-      <c r="G7" s="6">
-        <v>664.19</v>
+        <v>402.93</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1537.19</v>
       </c>
       <c r="H7" s="6">
-        <v>12.46</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1186,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>594.51</v>
+        <v>422.33</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -1200,7 +1208,7 @@
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6">
-        <v>594.51</v>
+        <v>422.33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1216,13 +1224,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>587.87</v>
-      </c>
-      <c r="G8" s="6">
-        <v>76.319999999999993</v>
+        <v>406.96</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1130.23</v>
       </c>
       <c r="H8" s="6">
-        <v>6.64</v>
+        <v>15.37</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1231,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>594.51</v>
+        <v>422.33</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1245,7 +1253,7 @@
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6">
-        <v>594.51</v>
+        <v>422.33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1261,13 +1269,13 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>76.319999999999993</v>
+        <v>411.03</v>
       </c>
       <c r="G9" s="6">
-        <v>0</v>
+        <v>719.2</v>
       </c>
       <c r="H9" s="6">
-        <v>0.76</v>
+        <v>11.3</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1276,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <v>77.08</v>
+        <v>422.33</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -1290,7 +1298,97 @@
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6">
-        <v>77.08</v>
+        <v>422.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>31</v>
+      </c>
+      <c r="C10" s="8">
+        <v>42248</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>415.14</v>
+      </c>
+      <c r="G10" s="6">
+        <v>304.06</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7.19</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>422.33</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6">
+        <v>422.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8">
+        <v>42278</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>304.06</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3.04</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6">
+        <v>307.10000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1303,12 +1401,14 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="10"/>
+    <col min="3" max="3" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1347,7 +1447,7 @@
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>52</v>
@@ -1368,7 +1468,7 @@
         <v>35</v>
       </c>
       <c r="H2" s="6">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="I2" s="6">
         <v>0</v>
@@ -1381,7 +1481,7 @@
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>52</v>
